--- a/App_pressing_Loreau/Resources/PatternExcel/LectureXPattern.xlsx
+++ b/App_pressing_Loreau/Resources/PatternExcel/LectureXPattern.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
   <si>
     <t>LE LOREAU 28130 Hanches</t>
   </si>
@@ -27,32 +27,62 @@
     <t>Siret : 49535155300021</t>
   </si>
   <si>
-    <t>Facture</t>
+    <t xml:space="preserve">Lecture X - </t>
   </si>
   <si>
-    <t xml:space="preserve">Ref : </t>
+    <t>Chiffre d'affaire</t>
   </si>
   <si>
-    <t>&lt;Reference&gt;</t>
+    <t>&lt;Departement&gt;</t>
   </si>
   <si>
-    <t>Adresse 1</t>
+    <t>&lt;Type Paiement&gt;</t>
   </si>
   <si>
-    <t>Adresse 3</t>
+    <t>&lt;TTC&gt;</t>
   </si>
   <si>
-    <t>Adresse 2</t>
+    <t>CA TTC</t>
   </si>
   <si>
-    <t>Nom Prenom</t>
+    <t>Articles de la journée</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Reçus</t>
+  </si>
+  <si>
+    <t>Rendu</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>&lt;Type Article&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Nb&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Total&gt;</t>
+  </si>
+  <si>
+    <t>Nouvelles commandes :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouveaux clients : </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +105,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -186,13 +223,201 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="double">
-        <color theme="0" tint="-0.24994659260841701"/>
+      <top style="thin">
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,11 +426,9 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.24994659260841701"/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,14 +436,100 @@
       <left style="thin">
         <color theme="0"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.24994659260841701"/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -228,12 +537,127 @@
       <left style="thin">
         <color theme="0"/>
       </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right/>
       <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -241,26 +665,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,7 +681,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,29 +1064,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K33"/>
+  <dimension ref="A2:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10" width="7.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="5" width="7.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="3.85546875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="7.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -601,8 +1100,9 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -616,8 +1116,9 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -629,246 +1130,1307 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="26.25">
-      <c r="A7" s="13" t="s">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="26.25">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="11" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="G20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="G21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="G22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="10"/>
+      <c r="K20" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="G23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="G24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="G25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="G26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="G27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="G28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="G29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="G30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="G31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="G32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="G33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12"/>
+      <c r="D24" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="53"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="I33:J33"/>
+  <mergeCells count="66">
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/App_pressing_Loreau/Resources/PatternExcel/LectureXPattern.xlsx
+++ b/App_pressing_Loreau/Resources/PatternExcel/LectureXPattern.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
   <si>
     <t>LE LOREAU 28130 Hanches</t>
   </si>
@@ -69,9 +69,6 @@
     <t>&lt;Nb&gt;</t>
   </si>
   <si>
-    <t>&lt;Total&gt;</t>
-  </si>
-  <si>
     <t>Nouvelles commandes :</t>
   </si>
   <si>
@@ -672,32 +669,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -705,32 +681,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -742,14 +703,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -761,13 +722,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1066,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1133,1243 +1130,1281 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="26.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="40" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="16" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="20" t="s">
+      <c r="I10" s="46"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="9" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="I11" s="54"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="9" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="13" t="s">
+      <c r="I12" s="54"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="9" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="9" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="13" t="s">
+      <c r="I14" s="54"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="9" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="13" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="9" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="13" t="s">
+      <c r="I16" s="54"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="9" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="13" t="s">
+      <c r="I17" s="54"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="9" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="13" t="s">
+      <c r="I18" s="54"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="9" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="13" t="s">
+      <c r="I19" s="54"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="9" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="13" t="s">
+      <c r="I20" s="54"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="25" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="31" t="s">
+      <c r="I21" s="56"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="32" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="38" t="s">
+      <c r="I22" s="50"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="40" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="54" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="16" t="s">
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="16" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="16" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="16" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="16" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="16" t="s">
+      <c r="B32" s="46"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="16" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="16" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="16" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="16" t="s">
+      <c r="B36" s="46"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="16" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="16" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="16" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="16" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="16" t="s">
+      <c r="B41" s="46"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="16" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="16" t="s">
+      <c r="B43" s="46"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
@@ -2386,51 +2421,11 @@
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
